--- a/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,2%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 2,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,21; 26,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,98; 305,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,16; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,15; 270,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,88; 381,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>13,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>445,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>109,51%</t>
+          <t>110,42%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 9,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,88</t>
+          <t>6,49; 21,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,89; 522,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 3010,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,35; 262,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,94; 236,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>331,11%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 28,04</t>
+          <t>-1,8; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 6,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,55</t>
+          <t>-2,28; 11,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,81; 429,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,83; 158,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,63; 334,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,82; 80,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>178,2%</t>
+          <t>144,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>176,46%</t>
+          <t>111,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>56,17%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,04</t>
+          <t>-0,94; 3,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 26,77</t>
+          <t>3,05; 13,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,59</t>
+          <t>0,58; 6,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,77</t>
+          <t>1,67; 17,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 297,6</t>
+          <t>-22,44; 111,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,48; 368,33</t>
+          <t>31,36; 658,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 1010,96</t>
+          <t>8,36; 360,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 312,83</t>
+          <t>6,55; 117,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,33</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>110,42%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>174,88%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>117,83%</t>
+          <t>133,9%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,81</t>
+          <t>-1,87; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 20,61</t>
+          <t>3,99; 12,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,1</t>
+          <t>-1,76; 6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,52</t>
+          <t>9,82; 25,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 282,27</t>
+          <t>-21,97; 65,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,45; 230,24</t>
+          <t>31,24; 161,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,32; 561,63</t>
+          <t>-21,82; 139,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 470,12</t>
+          <t>54,14; 253,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>111,5%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>128,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>209,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>175,77%</t>
+          <t>51,3%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,44</t>
+          <t>0,58; 5,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 12,08</t>
+          <t>-2,83; 13,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,61</t>
+          <t>2,61; 8,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,9</t>
+          <t>-1,96; 20,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 300,88</t>
+          <t>1,73; 185,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 91,27</t>
+          <t>-40,99; 407,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 101,93</t>
+          <t>58,67; 456,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,36; 481,79</t>
+          <t>-11,64; 157,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>17,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>167,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,21%</t>
+          <t>80,48%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,48</t>
+          <t>4,97; 11,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 17,59</t>
+          <t>1,15; 12,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,39</t>
+          <t>0,73; 7,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,95</t>
+          <t>6,05; 26,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 244,7</t>
+          <t>73,48; 315,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,38; 117,84</t>
+          <t>8,33; 187,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,34; 146,74</t>
+          <t>6,92; 168,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 128,98</t>
+          <t>19,59; 162,9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,08</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>133,9%</t>
+          <t>101,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>82,37%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,95</t>
+          <t>2,09; 4,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 24,77</t>
+          <t>2,53; 7,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,45</t>
+          <t>1,71; 4,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,27</t>
+          <t>9,71; 16,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 164,32</t>
+          <t>46,04; 119,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,5; 269,39</t>
+          <t>46,54; 202,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,21; 149,08</t>
+          <t>39,84; 133,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 58,66</t>
+          <t>57,09; 112,5</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>7,88</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>198,42%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>51,3%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>167,77%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>134,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 8,25</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 19,92</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 11,97</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 7,23</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>70,0; 422,34</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; 149,6</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>28,49; 310,72</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>45,3; 282,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>63,7%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>80,48%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>82,91%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>155,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 6,95</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 27,21</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 11,16</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 9,63</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 155,34</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 171,8</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>28,76; 165,58</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>72,56; 276,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>12,76</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>86,49%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>82,65%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>93,83%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>88,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 4,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 15,7</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,78</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>46,09; 131,82</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>55,99; 113,85</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>64,05; 128,1</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>58,88; 129,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,84</t>
+          <t>-3,87; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 11,42</t>
+          <t>-2,4; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 26,95</t>
+          <t>8,83; 26,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 305,68</t>
+          <t>-84,35; 88,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,16; —</t>
+          <t>-64,04; 1488,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,88; 381,5</t>
+          <t>54,62; 413,91</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>108,46%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,96</t>
+          <t>-0,87; 3,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,8</t>
+          <t>1,18; 9,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 21,45</t>
+          <t>6,39; 21,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 522,23</t>
+          <t>-41,52; 340,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3010,4</t>
+          <t>-8,85; 2122,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,94; 236,06</t>
+          <t>38,57; 227,16</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>145,99%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,05</t>
+          <t>0,15; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,45</t>
+          <t>-2,2; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 11,11</t>
+          <t>-2,11; 11,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 429,41</t>
+          <t>-0,27; 402,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 158,74</t>
+          <t>-31,19; 152,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 80,78</t>
+          <t>-10,57; 88,86</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,36</t>
+          <t>-1,04; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,83</t>
+          <t>3,14; 13,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 17,37</t>
+          <t>1,99; 18,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 111,67</t>
+          <t>-24,98; 105,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,36; 658,46</t>
+          <t>29,86; 763,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 117,72</t>
+          <t>8,79; 126,16</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,78</t>
+          <t>-1,15; 4,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,4</t>
+          <t>3,79; 13,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 25,02</t>
+          <t>9,28; 25,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 65,26</t>
+          <t>-15,36; 81,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,24; 161,89</t>
+          <t>27,89; 174,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,14; 253,68</t>
+          <t>53,57; 264,32</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>103,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,88</t>
+          <t>1,47; 7,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 13,1</t>
+          <t>-3,27; 13,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 20,99</t>
+          <t>-2,56; 20,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 185,16</t>
+          <t>22,56; 227,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 407,18</t>
+          <t>-57,4; 412,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 157,59</t>
+          <t>-13,4; 156,91</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>167,32%</t>
+          <t>226,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,17</t>
+          <t>6,77; 13,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,01</t>
+          <t>1,66; 11,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 26,35</t>
+          <t>6,42; 26,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,48; 315,41</t>
+          <t>117,6; 442,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 187,72</t>
+          <t>10,59; 177,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 162,9</t>
+          <t>19,01; 170,05</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,19</t>
+          <t>2,01; 3,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,99</t>
+          <t>2,21; 7,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,03</t>
+          <t>9,44; 15,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>46,04; 119,96</t>
+          <t>45,61; 118,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,54; 202,77</t>
+          <t>41,25; 179,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>57,09; 112,5</t>
+          <t>53,89; 112,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18,08</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,05</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,08</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>117,4%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>178,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-38,23%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>143,3%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>178,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,66; 9,23</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 26,51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 2,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-3,87; 0,96</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 11,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 2,74</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 26,51</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-67,45; 1292,47</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54,62; 413,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-70,15; 270,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-84,35; 88,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-64,04; 1488,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-70,15; 270,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>54,62; 413,91</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13,33</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,09</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,33</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>234,03%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>110,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>66,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>445,73%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>110,42%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,37; 9,83</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 21,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-0,87; 3,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 9,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 3,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 21,04</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>4,11; 1149,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38,57; 227,16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,35; 262,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-41,52; 340,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 2122,29</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-52,35; 262,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>38,57; 227,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,96</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>44,94%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>120,33%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>99,21%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>120,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,6; 5,36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 11,99</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 6,68</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,15; 4,08</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 5,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 6,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 11,99</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-23,17; 168,37</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 88,86</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 334,3</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-0,27; 402,56</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-31,19; 152,84</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 334,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 88,86</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9,91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,91</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>46,61%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>56,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>111,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>27,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>144,29%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>111,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>56,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,19; 7,74</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 18,27</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 6,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,04; 2,78</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 13,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 6,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 18,27</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-3,13; 111,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 126,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 360,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-24,98; 105,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>29,86; 763,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 360,92</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8,79; 126,16</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,08</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,29</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,08</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>99,36%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>133,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>19,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>87,19%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>41,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>133,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,51; 13,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 25,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-1,15; 4,26</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 13,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 6,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>9,28; 25,46</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>35,99; 192,62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53,57; 264,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,82; 139,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-15,36; 81,49</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>27,89; 174,13</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-21,82; 139,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>53,57; 264,32</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,42</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>4,35</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>341,83%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>209,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>103,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>128,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>209,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>51,3%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8,18; 16,12</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 20,09</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 8,25</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>1,47; 7,05</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 13,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 8,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 20,09</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>140,75; 748,09</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 156,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58,67; 456,09</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>22,56; 227,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-57,4; 412,78</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>58,67; 456,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-13,4; 156,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17,19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>76,79%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>64,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>226,62%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>74,86%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>64,86%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>80,48%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,18; 12,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 26,93</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 7,21</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>6,77; 13,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 11,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 7,21</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,42; 26,93</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>14,68; 180,41</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 170,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 168,4</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>117,6; 442,13</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 177,65</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 168,4</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,01; 170,05</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,77</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>3,03</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>12,77</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>100,63%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>82,37%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82,74%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>81,25%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>101,77%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>82,74%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>82,37%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,54; 7,75</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 15,87</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 4,08</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>2,01; 3,97</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 7,64</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 4,08</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>9,44; 15,87</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>65,37; 147,56</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>53,89; 112,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>39,84; 133,68</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>45,61; 118,1</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>41,25; 179,05</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>39,84; 133,68</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>53,89; 112,71</t>
         </is>
       </c>
     </row>
